--- a/biology/Zoologie/Abraxas_grossulariata/Abraxas_grossulariata.xlsx
+++ b/biology/Zoologie/Abraxas_grossulariata/Abraxas_grossulariata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zérène du groseillier, Phalène mouchetée
 La Zérène du groseillier ou Phalène mouchetée, Abraxas grossulariata, est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Ennominae, du genre Abraxas et du sous-genre Abraxas (Abraxas).
@@ -514,11 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imago
-Imago mâle : dessus des ailes antérieures blanc à taches noires avec 2 bandes jaune orangé. Dessus des ailes postérieures blanc à taches noires sans bandes. Le corps est jaune orangé, l'abdomen est ponctué de points noirs.
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imago mâle : dessus des ailes antérieures blanc à taches noires avec 2 bandes jaune orangé. Dessus des ailes postérieures blanc à taches noires sans bandes. Le corps est jaune orangé, l'abdomen est ponctué de points noirs.
 Imago femelle : semblable au mâle.
 Envergure : 35-45 mm.
-Chenille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Chenille d'Abraxas grossulariata
 Corps blanc jaunâtre ponctué de taches noires. Parfois quelques zones orangées sur le thorax. Tête noire. Chenille arpenteuse.
 Longueur : 32 mm.
@@ -528,37 +581,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Abraxas_grossulariata</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Abraxas_grossulariata</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce paléarctique, largement répandue en Europe, relativement commune en France.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -580,12 +602,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette Phalène est univoltine. La femelle pond les œufs en groupe sous les feuilles, en été. Les jeunes chenilles passent l'hiver. La nymphose a lieu en mai dans un cocon lâche sur la plante hôte. L'imago vole en mai, il est actif pendant la journée, au crépuscule et en fin de nuit.
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce paléarctique, largement répandue en Europe, relativement commune en France.
 </t>
         </is>
       </c>
@@ -611,20 +635,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette Phalène est univoltine. La femelle pond les œufs en groupe sous les feuilles, en été. Les jeunes chenilles passent l'hiver. La nymphose a lieu en mai dans un cocon lâche sur la plante hôte. L'imago vole en mai, il est actif pendant la journée, au crépuscule et en fin de nuit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Abraxas (Abraxas) grossulariata a été décrit par le naturaliste suédois Carl von Linné en 1758 sous le nom de Phalaena grossulariata[1]. C'est Leach en 1815 qui reclassera cette espèce dans le genre Abraxas.
-Synonymie
-Phalaena (Geometra) grossulariata Linnaeus, 1758 Protonyme
-Noms vernaculaires
-Zérène du groseillier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Abraxas (Abraxas) grossulariata a été décrit par le naturaliste suédois Carl von Linné en 1758 sous le nom de Phalaena grossulariata. C'est Leach en 1815 qui reclassera cette espèce dans le genre Abraxas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phalaena (Geometra) grossulariata Linnaeus, 1758 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Zérène du groseillier
 Phalène mouchetée
-Phalène aqueuse
-Taxinomie
-Il existe plusieurs sous-espèces :
+Phalène aqueuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abraxas_grossulariata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Il existe plusieurs sous-espèces :
 Abraxas (Abraxas) grossulariata grossulariata
 Abraxas (Abraxas) grossulariata conspurcata (Butler, 1878) (Japon)
 Abraxas (Abraxas) grossulariata ribesata (Staudinger, 1892)
